--- a/Tabelas/Municipios_RMVale.xlsx
+++ b/Tabelas/Municipios_RMVale.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="270">
   <si>
     <t>Ilhabela</t>
   </si>
@@ -858,6 +858,9 @@
   </si>
   <si>
     <t>Unidade</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -3509,8 +3512,8 @@
   <dimension ref="A1:BM40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K1048576"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -6278,7 +6281,9 @@
       </c>
     </row>
     <row r="15" spans="1:65" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
+      <c r="A15" s="15" t="s">
+        <v>269</v>
+      </c>
       <c r="B15" s="16">
         <v>14</v>
       </c>
@@ -9788,7 +9793,7 @@
         <v>11427</v>
       </c>
     </row>
-    <row r="33" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:65" x14ac:dyDescent="0.3">
       <c r="B33" s="10">
         <v>32</v>
       </c>
@@ -9983,7 +9988,7 @@
         <v>4313</v>
       </c>
     </row>
-    <row r="34" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:65" x14ac:dyDescent="0.3">
       <c r="B34" s="10">
         <v>33</v>
       </c>
@@ -10178,7 +10183,7 @@
         <v>725419</v>
       </c>
     </row>
-    <row r="35" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:65" x14ac:dyDescent="0.3">
       <c r="B35" s="10">
         <v>34</v>
       </c>
@@ -10373,7 +10378,10 @@
         <v>10181</v>
       </c>
     </row>
-    <row r="36" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>269</v>
+      </c>
       <c r="B36" s="10">
         <v>35</v>
       </c>
@@ -10568,7 +10576,7 @@
         <v>87939</v>
       </c>
     </row>
-    <row r="37" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:65" x14ac:dyDescent="0.3">
       <c r="B37" s="10">
         <v>36</v>
       </c>
@@ -10763,7 +10771,7 @@
         <v>6169</v>
       </c>
     </row>
-    <row r="38" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:65" x14ac:dyDescent="0.3">
       <c r="B38" s="10">
         <v>37</v>
       </c>
@@ -10958,7 +10966,7 @@
         <v>311912</v>
       </c>
     </row>
-    <row r="39" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:65" x14ac:dyDescent="0.3">
       <c r="B39" s="10">
         <v>38</v>
       </c>
@@ -11153,7 +11161,7 @@
         <v>51489</v>
       </c>
     </row>
-    <row r="40" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:65" x14ac:dyDescent="0.3">
       <c r="B40" s="10">
         <v>39</v>
       </c>

--- a/Tabelas/Municipios_RMVale.xlsx
+++ b/Tabelas/Municipios_RMVale.xlsx
@@ -3512,8 +3512,8 @@
   <dimension ref="A1:BM40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
